--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gregory\Documents\GitHub\svg_fractals\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B971B4F-CEEC-439A-B924-94B51DAC1E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78982E7B-0D4E-48CF-9185-642E6ADC19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="10350" windowWidth="37005" windowHeight="14820" activeTab="1" xr2:uid="{3010CAC8-A593-4990-8D03-0073717A7BA0}"/>
+    <workbookView xWindow="18150" yWindow="8730" windowWidth="35145" windowHeight="20700" xr2:uid="{3010CAC8-A593-4990-8D03-0073717A7BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2663,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050FE92D-B310-4608-8031-52D6ED0F9502}">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
@@ -4227,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E892514-E56B-4D07-89CB-3270EC02E366}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
